--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS4.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 800-POS-POS4.xlsx
@@ -19,7 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="135">
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
   <si>
     <t>Signal_Value_15</t>
   </si>
@@ -321,6 +342,12 @@
     <t>Signal_Value_114</t>
   </si>
   <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -393,10 +420,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -757,15 +781,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:DF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:110">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1067,10 +1091,37 @@
       <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:110">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1079,97 +1130,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.05599757268432361</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.008967393620460102</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01311988901482393</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0002495672322261596</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02818528833566637</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.06329914713996525</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0002159174386844931</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01716937627910259</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1560324915826504</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0173876330940039</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.007110673721526481</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.02832312509906048</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.006142571457567142</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.09840732926311663</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01386572147955843</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.01237904474675623</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.005255522747297438</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0426066242909446</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001947072430280914</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.1118541907954448</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.07922068716147687</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.02905094362659364</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.02450708109808011</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.004134209656511632</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01061146176396189</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.08420340006747015</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.008735813967693164</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01710156043717641</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.02237241989370443</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.01242340750350817</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01912286237036343</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1274,108 +1325,135 @@
         <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.003428101741120863</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0350072729512844</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.007633338254218474</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.04524594581178841</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.003130224841426796</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.07053872741367635</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.02031099722291165</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0001714901516616305</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001365593635701216</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.03938121208939811</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.09295609798084119</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01177276593000088</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.02279284422166662</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.05771356918119255</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.05880320711686145</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.04245918537074334</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.010287345600346</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0009518965559192806</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0255572893656115</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0630677701568112</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.07472813624965616</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.06900679630734199</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.04117764711168822</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.006715122438523202</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.008007048567931952</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.03757220167479111</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.03916544956087661</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02851303342777252</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.0303083687669248</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0231024004301848</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.01696634924905453</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.01216257062207227</v>
+        <v>0</v>
       </c>
       <c r="CW2">
         <v>0</v>
       </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:110">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1492,139 +1570,139 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.0324293842347409</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.00747990071720479</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.02041068238383985</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.01136654063046927</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.1123792121971326</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>0.005450729317827759</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.08415265668148102</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>0.0009626580440326505</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>0.07362598519973231</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>0.0005747593987554845</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>0.009754138729881805</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.01358741109941713</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>0.02548279362964684</v>
       </c>
       <c r="BA3">
-        <v>0.003569414071947099</v>
+        <v>0.01483561051601117</v>
       </c>
       <c r="BB3">
-        <v>0.005705185266672554</v>
+        <v>0.0001039659193562735</v>
       </c>
       <c r="BC3">
-        <v>0.008007914240157208</v>
+        <v>0.009875967747774014</v>
       </c>
       <c r="BD3">
-        <v>0.009157206322294114</v>
+        <v>0.1036356818375424</v>
       </c>
       <c r="BE3">
-        <v>0.007162938630701755</v>
+        <v>2.49267790402613E-05</v>
       </c>
       <c r="BF3">
-        <v>0.00564592228639608</v>
+        <v>0.03060755140672262</v>
       </c>
       <c r="BG3">
-        <v>0.003501433239258274</v>
+        <v>0.04711517112941927</v>
       </c>
       <c r="BH3">
-        <v>0.0009635499141138964</v>
+        <v>0.0666363547261072</v>
       </c>
       <c r="BI3">
-        <v>0.0001711794062419187</v>
+        <v>0.115002397521633</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>0.003125118930693739</v>
       </c>
       <c r="BK3">
-        <v>6.574394196145015E-05</v>
+        <v>0.0412562617414997</v>
       </c>
       <c r="BL3">
-        <v>0.0005183563817649499</v>
+        <v>0.1073074464693318</v>
       </c>
       <c r="BM3">
-        <v>0.0006591313853924892</v>
+        <v>0.04903962122756207</v>
       </c>
       <c r="BN3">
-        <v>0.0004808893015794214</v>
+        <v>0.001910157841426695</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.001353280696472976</v>
       </c>
       <c r="BP3">
-        <v>0.01678895403872553</v>
+        <v>0.004845367887190429</v>
       </c>
       <c r="BQ3">
-        <v>0.03403523777703255</v>
+        <v>0.00489283575040694</v>
       </c>
       <c r="BR3">
-        <v>8.45932793585412E-05</v>
+        <v>0.0001550940804243512</v>
       </c>
       <c r="BS3">
-        <v>0.08971790742039681</v>
+        <v>0.0006203355272226014</v>
       </c>
       <c r="BT3">
-        <v>0.004373724628869625</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.04768774763055093</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.04843534796579496</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001028518604396854</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.008129130726108168</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.04133506903019724</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.2494694909003933</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.07560174499508091</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01850634174606399</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.09380903834162954</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.1023487737463665</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.09378503244721129</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.03018014907729932</v>
+        <v>0</v>
       </c>
       <c r="CG3">
         <v>0</v>
@@ -1677,10 +1755,37 @@
       <c r="CW3">
         <v>0</v>
       </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:110">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1800,181 +1905,181 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.05261366557407085</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.01868371362653439</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.06463018773426567</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.0004514041157310962</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.0397684632548255</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.01430638827444351</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.09553226358887425</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.02243017158781277</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.05117138751721086</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>0.002759368990683097</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.0002551869135421717</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.002257083123169362</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>0.05076076551891347</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.014700236122164</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.0002347215549679111</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.0221223985257306</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.05358975228734502</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.009110826232786678</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.08889446416628657</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.1522814217350126</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.04306028484942969</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.03271838767948816</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.0004676519800453756</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.04197886857086824</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.0760912695362464</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.03761777924187672</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.001577920930499038</v>
       </c>
       <c r="BP4">
-        <v>0.002139133882618113</v>
+        <v>0.001120937622973271</v>
       </c>
       <c r="BQ4">
-        <v>0.003670357427069808</v>
+        <v>0.007685570600323018</v>
       </c>
       <c r="BR4">
-        <v>0.01653562851961003</v>
+        <v>0.001076074573932395</v>
       </c>
       <c r="BS4">
-        <v>0.02581745234851775</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01069662407562399</v>
+        <v>5.138396994732831E-05</v>
       </c>
       <c r="BU4">
-        <v>0.01906539686499415</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.04737105494458017</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.003752897185000511</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001977848756237955</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.04771614860806393</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.135336278409965</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.00334849570895464</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.051722850762097</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.06213354208705719</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.06175446273358309</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0297703378334886</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.008622642216409786</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.00145882408797341</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.05000215573070869</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.09014636492873516</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.07422831638063297</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.06149481408644156</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.03296520045837929</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.004615792495386709</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.009318928002287312</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.02872823786299381</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.02890341905851031</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.02715531226007986</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.02686456267114608</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01839276308431055</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01429415652854247</v>
+        <v>0</v>
       </c>
       <c r="CV4">
         <v>0</v>
@@ -1982,10 +2087,37 @@
       <c r="CW4">
         <v>0</v>
       </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:110">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1994,100 +2126,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00115117293138736</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>7.140799914309113E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01454134766974423</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.02526265924754699</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01673805761652928</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007479457474930754</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03974296900918499</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.007384732054858953</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00136702778603036</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.005771910919104059</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.05004572518890876</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1047473327446141</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001261787775422467</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.04436290151908409</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.05660075962517804</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05252162510465746</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.02472428881654677</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.004595461251544209</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002709313563736335</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04351186962207539</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.07539006147329155</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.07743026903943395</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.08770585632451676</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.04407192660101644</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00580621014381756</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01290191720649851</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.04041410504873681</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.04292106965861013</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.03631034832828301</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03230460303202596</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0237072647283471</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01644456049519442</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -2111,100 +2243,100 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.07914928858143115</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.01602534917206489</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.07141538395093472</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.00247758740458559</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.01618739914431853</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.0002932410596281825</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.008680864578477075</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.0002895573326536702</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.1618870122305315</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.002241588088813611</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.009860073857863874</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.01658433243020408</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.00426967004573608</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.003777710140211449</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.03427423336361338</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.03153598019038576</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.02475643078205193</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.01012008468533551</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.01243035832443321</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.03965031911696659</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.08757947195131875</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.1674947119736256</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.0009592028104234435</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.02247576662102987</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.04917964431077228</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.07182523805246521</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.01886582640898035</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.02141139558355814</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.01189007204575043</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.0003953707927949333</v>
       </c>
       <c r="BU5">
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.002016834969040436</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2287,10 +2419,37 @@
       <c r="CW5">
         <v>0</v>
       </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:110">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2497,100 +2656,127 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001244359099223606</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.001481401736310536</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001368027434139321</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.001180603646374719</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.000879736223685598</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.005608998347488862</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.026307112338748</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.003823619933174391</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.04874252395792879</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.007782726398363977</v>
+        <v>0.04758264174360684</v>
       </c>
       <c r="CB6">
-        <v>0.01586613155572409</v>
+        <v>0.01495179197110052</v>
       </c>
       <c r="CC6">
-        <v>0.03166556897484631</v>
+        <v>0.07301665811727272</v>
       </c>
       <c r="CD6">
-        <v>0.01661504868400624</v>
+        <v>0.005685234579040986</v>
       </c>
       <c r="CE6">
-        <v>8.415781651504399E-05</v>
+        <v>0.008390883978780609</v>
       </c>
       <c r="CF6">
-        <v>0.03022564010809934</v>
+        <v>0.01093458333604049</v>
       </c>
       <c r="CG6">
-        <v>0.1004383595220294</v>
+        <v>0.02325823573125834</v>
       </c>
       <c r="CH6">
-        <v>0.1080124253573385</v>
+        <v>2.882604171913427E-05</v>
       </c>
       <c r="CI6">
-        <v>0.03207553694906925</v>
+        <v>0.1626556181570279</v>
       </c>
       <c r="CJ6">
-        <v>0.01702187406608731</v>
+        <v>0.0002492804633079609</v>
       </c>
       <c r="CK6">
-        <v>0.08722253795641061</v>
+        <v>0.05044859528135261</v>
       </c>
       <c r="CL6">
-        <v>0.0989236538476083</v>
+        <v>0.002028309618304777</v>
       </c>
       <c r="CM6">
-        <v>0.02841838313435468</v>
+        <v>0.001082234752433178</v>
       </c>
       <c r="CN6">
-        <v>0.001129863088951529</v>
+        <v>0.02036076825290245</v>
       </c>
       <c r="CO6">
-        <v>0.002158553104941311</v>
+        <v>0.03344192492666215</v>
       </c>
       <c r="CP6">
-        <v>0.0334735727985014</v>
+        <v>0.03738449510884625</v>
       </c>
       <c r="CQ6">
-        <v>0.09306687924428424</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.09552963417952332</v>
+        <v>0.005703688674780709</v>
       </c>
       <c r="CS6">
-        <v>0.05928158841652136</v>
+        <v>0.003177554791225108</v>
       </c>
       <c r="CT6">
-        <v>0.02498983033570342</v>
+        <v>0.09311744737653406</v>
       </c>
       <c r="CU6">
-        <v>0.003060837821832364</v>
+        <v>0.2161687295573413</v>
       </c>
       <c r="CV6">
-        <v>0.004430720228928673</v>
+        <v>0.06036259714242558</v>
       </c>
       <c r="CW6">
-        <v>0.01789009369328551</v>
+        <v>0.005222962304184139</v>
+      </c>
+      <c r="CX6">
+        <v>0.03329645308786148</v>
+      </c>
+      <c r="CY6">
+        <v>0.02448721135038621</v>
+      </c>
+      <c r="CZ6">
+        <v>0.05184339155366439</v>
+      </c>
+      <c r="DA6">
+        <v>0.01139453334531138</v>
+      </c>
+      <c r="DB6">
+        <v>0.001157941089508924</v>
+      </c>
+      <c r="DC6">
+        <v>0.000819242485585873</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0.0005527706269391334</v>
+      </c>
+      <c r="DF6">
+        <v>0.001195394554594798</v>
       </c>
     </row>
   </sheetData>
@@ -2600,15 +2786,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:DF6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:110">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2910,10 +3096,37 @@
       <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:110">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2922,303 +3135,330 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.05599757268432361</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06496496630478371</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.07808485531960764</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0783344225518338</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1065197108875002</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1698188580274654</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1700347754661499</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1872041517452525</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3432366433279029</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3606242764219068</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3677349501434333</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.3960580752424938</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4022006467000609</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.5006079759631775</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.514473697442736</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.5268527421894922</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.5321082649367896</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.5747148892277343</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.5766619616580152</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.68851615245346</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.7677368396149369</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.7967877832415305</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.8212948643396106</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.8254290739961223</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.8360405357600842</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.9202439358275544</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.9289797497952476</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.9460813102324239</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9684537301261283</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9808771376296365</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ2">
-        <v>0.003428101741120863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR2">
-        <v>0.03843537469240527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS2">
-        <v>0.04606871294662374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT2">
-        <v>0.09131465875841216</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU2">
-        <v>0.09444488359983895</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV2">
-        <v>0.1649836110135153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW2">
-        <v>0.185294608236427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX2">
-        <v>0.1854660983880886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY2">
-        <v>0.1868316920237898</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ2">
-        <v>0.2262129041131879</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA2">
-        <v>0.3191690020940291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB2">
-        <v>0.33094176802403</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC2">
-        <v>0.3537346122456966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD2">
-        <v>0.4114481814268891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE2">
-        <v>0.4702513885437505</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF2">
-        <v>0.5127105739144939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG2">
-        <v>0.5229979195148399</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH2">
-        <v>0.5239498160707592</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI2">
-        <v>0.5495071054363707</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ2">
-        <v>0.6125748755931819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK2">
-        <v>0.687303011842838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL2">
-        <v>0.75630980815018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM2">
-        <v>0.7974874552618683</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN2">
-        <v>0.8042025777003915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO2">
-        <v>0.8122096262683235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP2">
-        <v>0.8497818279431146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ2">
-        <v>0.8889472775039913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR2">
-        <v>0.9174603109317638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS2">
-        <v>0.9477686796986886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT2">
-        <v>0.9708710801288735</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU2">
-        <v>0.987837429377928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:110">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3335,195 +3575,222 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.0324293842347409</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.03990928495194569</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.06031996733578554</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.07168650796625481</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.1840657201633875</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>0.1895164494812152</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.2736691061626962</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>0.2746317642067289</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>0.3482577494064612</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>0.3488325088052167</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>0.3585866475350985</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.3721740586345156</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>0.3976568522641625</v>
       </c>
       <c r="BA3">
-        <v>0.003569414071947099</v>
+        <v>0.4124924627801737</v>
       </c>
       <c r="BB3">
-        <v>0.009274599338619653</v>
+        <v>0.4125964286995299</v>
       </c>
       <c r="BC3">
-        <v>0.01728251357877686</v>
+        <v>0.4224723964473039</v>
       </c>
       <c r="BD3">
-        <v>0.02643971990107098</v>
+        <v>0.5261080782848464</v>
       </c>
       <c r="BE3">
-        <v>0.03360265853177273</v>
+        <v>0.5261330050638867</v>
       </c>
       <c r="BF3">
-        <v>0.03924858081816881</v>
+        <v>0.5567405564706094</v>
       </c>
       <c r="BG3">
-        <v>0.04275001405742708</v>
+        <v>0.6038557276000287</v>
       </c>
       <c r="BH3">
-        <v>0.04371356397154098</v>
+        <v>0.6704920823261359</v>
       </c>
       <c r="BI3">
-        <v>0.04388474337778289</v>
+        <v>0.7854944798477689</v>
       </c>
       <c r="BJ3">
-        <v>0.04388474337778289</v>
+        <v>0.7886195987784627</v>
       </c>
       <c r="BK3">
-        <v>0.04395048731974435</v>
+        <v>0.8298758605199623</v>
       </c>
       <c r="BL3">
-        <v>0.0444688437015093</v>
+        <v>0.9371833069892941</v>
       </c>
       <c r="BM3">
-        <v>0.04512797508690179</v>
+        <v>0.9862229282168562</v>
       </c>
       <c r="BN3">
-        <v>0.0456088643884812</v>
+        <v>0.9881330860582829</v>
       </c>
       <c r="BO3">
-        <v>0.0456088643884812</v>
+        <v>0.9894863667547559</v>
       </c>
       <c r="BP3">
-        <v>0.06239781842720674</v>
+        <v>0.9943317346419464</v>
       </c>
       <c r="BQ3">
-        <v>0.09643305620423928</v>
+        <v>0.9992245703923532</v>
       </c>
       <c r="BR3">
-        <v>0.09651764948359783</v>
+        <v>0.9993796644727776</v>
       </c>
       <c r="BS3">
-        <v>0.1862355569039946</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.1906092815328642</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.2382970291634152</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.2867323771292101</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.2868352289896498</v>
+        <v>1</v>
       </c>
       <c r="BX3">
-        <v>0.294964359715758</v>
+        <v>1</v>
       </c>
       <c r="BY3">
-        <v>0.3362994287459552</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
-        <v>0.5857689196463485</v>
+        <v>1</v>
       </c>
       <c r="CA3">
-        <v>0.6613706646414294</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>0.6798770063874934</v>
+        <v>1</v>
       </c>
       <c r="CC3">
-        <v>0.7736860447291229</v>
+        <v>1</v>
       </c>
       <c r="CD3">
-        <v>0.8760348184754894</v>
+        <v>1</v>
       </c>
       <c r="CE3">
-        <v>0.9698198509227006</v>
+        <v>1</v>
       </c>
       <c r="CF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:110">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3643,192 +3910,219 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.05261366557407085</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.07129737920060523</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.1359275669348709</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.136378971050602</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.1761474343054275</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.190453822579871</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.2859860861687453</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.3084162577565581</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.3595876452737689</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>0.362347014264452</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.3626022011779941</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.3648592843011635</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>0.4156200498200769</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.4303202859422409</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.4305550074972088</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.4526774060229394</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.5062671583102845</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.5153779845430712</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.6042724487093577</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.7565538704443703</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.7996141552938</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.8323325429732882</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.8328001949533336</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.8747790635242019</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.9508703330604482</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.9884881123023249</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.9900660332328239</v>
       </c>
       <c r="BP4">
-        <v>0.002139133882618113</v>
+        <v>0.9911869708557972</v>
       </c>
       <c r="BQ4">
-        <v>0.005809491309687921</v>
+        <v>0.9988725414561203</v>
       </c>
       <c r="BR4">
-        <v>0.02234511982929795</v>
+        <v>0.9999486160300527</v>
       </c>
       <c r="BS4">
-        <v>0.0481625721778157</v>
+        <v>0.9999486160300527</v>
       </c>
       <c r="BT4">
-        <v>0.05885919625343969</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.07792459311843383</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.125295648063014</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.1290485452480145</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0.1290485452480145</v>
+        <v>1</v>
       </c>
       <c r="BY4">
-        <v>0.1310263940042525</v>
+        <v>1</v>
       </c>
       <c r="BZ4">
-        <v>0.1787425426123164</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>0.3140788210222815</v>
+        <v>1</v>
       </c>
       <c r="CB4">
-        <v>0.3174273167312361</v>
+        <v>1</v>
       </c>
       <c r="CC4">
-        <v>0.3691501674933331</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0.4312837095803903</v>
+        <v>1</v>
       </c>
       <c r="CE4">
-        <v>0.4930381723139733</v>
+        <v>1</v>
       </c>
       <c r="CF4">
-        <v>0.522808510147462</v>
+        <v>1</v>
       </c>
       <c r="CG4">
-        <v>0.5314311523638717</v>
+        <v>1</v>
       </c>
       <c r="CH4">
-        <v>0.5328899764518451</v>
+        <v>1</v>
       </c>
       <c r="CI4">
-        <v>0.5828921321825538</v>
+        <v>1</v>
       </c>
       <c r="CJ4">
-        <v>0.6730384971112889</v>
+        <v>1</v>
       </c>
       <c r="CK4">
-        <v>0.7472668134919219</v>
+        <v>1</v>
       </c>
       <c r="CL4">
-        <v>0.8087616275783635</v>
+        <v>1</v>
       </c>
       <c r="CM4">
-        <v>0.8417268280367427</v>
+        <v>1</v>
       </c>
       <c r="CN4">
-        <v>0.8463426205321294</v>
+        <v>1</v>
       </c>
       <c r="CO4">
-        <v>0.8556615485344167</v>
+        <v>1</v>
       </c>
       <c r="CP4">
-        <v>0.8843897863974105</v>
+        <v>1</v>
       </c>
       <c r="CQ4">
-        <v>0.9132932054559209</v>
+        <v>1</v>
       </c>
       <c r="CR4">
-        <v>0.9404485177160007</v>
+        <v>1</v>
       </c>
       <c r="CS4">
-        <v>0.9673130803871468</v>
+        <v>1</v>
       </c>
       <c r="CT4">
-        <v>0.9857058434714574</v>
+        <v>1</v>
       </c>
       <c r="CU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:110">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3837,303 +4131,330 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00115117293138736</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.001222580930530451</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01576392860027468</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.04102658784782166</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05776464546435095</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06524410293928171</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1049870719484667</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1123718040033257</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.113738831789356</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1195107427084601</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1695564678973688</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2743038006419829</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2755655884174054</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.3199284899364895</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.3765292495616675</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.429050874666325</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.4537751634828717</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.4583706247344159</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.4610799382981522</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.5045918079202276</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.5799818693935191</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6574121384329531</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.7451179947574699</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.7891899213584863</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.7949961315023039</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.8078980487088023</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.8483121537575391</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.8912332234161492</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9275435717444322</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9598481747764582</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9835554395048053</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999997</v>
+        <v>0.07914928858143115</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999997</v>
+        <v>0.09517463775349605</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999997</v>
+        <v>0.1665900217044308</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999997</v>
+        <v>0.1690676091090164</v>
       </c>
       <c r="AU5">
-        <v>0.9999999999999997</v>
+        <v>0.1852550082533349</v>
       </c>
       <c r="AV5">
-        <v>0.9999999999999997</v>
+        <v>0.1855482493129631</v>
       </c>
       <c r="AW5">
-        <v>0.9999999999999997</v>
+        <v>0.1942291138914402</v>
       </c>
       <c r="AX5">
-        <v>0.9999999999999997</v>
+        <v>0.1945186712240939</v>
       </c>
       <c r="AY5">
-        <v>0.9999999999999997</v>
+        <v>0.3564056834546254</v>
       </c>
       <c r="AZ5">
-        <v>0.9999999999999997</v>
+        <v>0.358647271543439</v>
       </c>
       <c r="BA5">
-        <v>0.9999999999999997</v>
+        <v>0.3685073454013029</v>
       </c>
       <c r="BB5">
-        <v>0.9999999999999997</v>
+        <v>0.3850916778315069</v>
       </c>
       <c r="BC5">
-        <v>0.9999999999999997</v>
+        <v>0.389361347877243</v>
       </c>
       <c r="BD5">
-        <v>0.9999999999999997</v>
+        <v>0.3931390580174545</v>
       </c>
       <c r="BE5">
-        <v>0.9999999999999997</v>
+        <v>0.4274132913810679</v>
       </c>
       <c r="BF5">
-        <v>0.9999999999999997</v>
+        <v>0.4589492715714537</v>
       </c>
       <c r="BG5">
-        <v>0.9999999999999997</v>
+        <v>0.4837057023535056</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999997</v>
+        <v>0.4938257870388411</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999997</v>
+        <v>0.5062561453632742</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999997</v>
+        <v>0.5459064644802408</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999997</v>
+        <v>0.6334859364315596</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999997</v>
+        <v>0.8009806484051851</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999997</v>
+        <v>0.8019398512156086</v>
       </c>
       <c r="BN5">
-        <v>0.9999999999999997</v>
+        <v>0.8244156178366385</v>
       </c>
       <c r="BO5">
-        <v>0.9999999999999997</v>
+        <v>0.8735952621474108</v>
       </c>
       <c r="BP5">
-        <v>0.9999999999999997</v>
+        <v>0.945420500199876</v>
       </c>
       <c r="BQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9642863266088564</v>
       </c>
       <c r="BR5">
-        <v>0.9999999999999997</v>
+        <v>0.9856977221924145</v>
       </c>
       <c r="BS5">
-        <v>0.9999999999999997</v>
+        <v>0.9975877942381649</v>
       </c>
       <c r="BT5">
-        <v>0.9999999999999997</v>
+        <v>0.9979831650309599</v>
       </c>
       <c r="BU5">
-        <v>0.9999999999999997</v>
+        <v>0.9979831650309599</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:110">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4340,100 +4661,127 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001244359099223606</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002725760835534142</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.004093788269673462</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.005274391916048182</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.006154128139733779</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01176312648722264</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.03807023882597065</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.04189385875914504</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.09063638271707383</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0984191091154378</v>
+        <v>0.04758264174360684</v>
       </c>
       <c r="CB6">
-        <v>0.1142852406711619</v>
+        <v>0.06253443371470736</v>
       </c>
       <c r="CC6">
-        <v>0.1459508096460082</v>
+        <v>0.1355510918319801</v>
       </c>
       <c r="CD6">
-        <v>0.1625658583300144</v>
+        <v>0.1412363264110211</v>
       </c>
       <c r="CE6">
-        <v>0.1626500161465295</v>
+        <v>0.1496272103898017</v>
       </c>
       <c r="CF6">
-        <v>0.1928756562546288</v>
+        <v>0.1605617937258422</v>
       </c>
       <c r="CG6">
-        <v>0.2933140157766582</v>
+        <v>0.1838200294571005</v>
       </c>
       <c r="CH6">
-        <v>0.4013264411339967</v>
+        <v>0.1838488554988197</v>
       </c>
       <c r="CI6">
-        <v>0.4334019780830659</v>
+        <v>0.3465044736558476</v>
       </c>
       <c r="CJ6">
-        <v>0.4504238521491532</v>
+        <v>0.3467537541191555</v>
       </c>
       <c r="CK6">
-        <v>0.5376463901055638</v>
+        <v>0.3972023494005081</v>
       </c>
       <c r="CL6">
-        <v>0.6365700439531721</v>
+        <v>0.3992306590188129</v>
       </c>
       <c r="CM6">
-        <v>0.6649884270875267</v>
+        <v>0.4003128937712461</v>
       </c>
       <c r="CN6">
-        <v>0.6661182901764783</v>
+        <v>0.4206736620241486</v>
       </c>
       <c r="CO6">
-        <v>0.6682768432814196</v>
+        <v>0.4541155869508107</v>
       </c>
       <c r="CP6">
-        <v>0.7017504160799209</v>
+        <v>0.491500082059657</v>
       </c>
       <c r="CQ6">
-        <v>0.7948172953242052</v>
+        <v>0.491500082059657</v>
       </c>
       <c r="CR6">
-        <v>0.8903469295037285</v>
+        <v>0.4972037707344377</v>
       </c>
       <c r="CS6">
-        <v>0.9496285179202498</v>
+        <v>0.5003813255256627</v>
       </c>
       <c r="CT6">
-        <v>0.9746183482559533</v>
+        <v>0.5934987729021968</v>
       </c>
       <c r="CU6">
-        <v>0.9776791860777857</v>
+        <v>0.8096675024595381</v>
       </c>
       <c r="CV6">
-        <v>0.9821099063067144</v>
+        <v>0.8700300996019636</v>
       </c>
       <c r="CW6">
-        <v>0.9999999999999999</v>
+        <v>0.8752530619061478</v>
+      </c>
+      <c r="CX6">
+        <v>0.9085495149940093</v>
+      </c>
+      <c r="CY6">
+        <v>0.9330367263443955</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9848801178980598</v>
+      </c>
+      <c r="DA6">
+        <v>0.9962746512433712</v>
+      </c>
+      <c r="DB6">
+        <v>0.9974325923328802</v>
+      </c>
+      <c r="DC6">
+        <v>0.998251834818466</v>
+      </c>
+      <c r="DD6">
+        <v>0.998251834818466</v>
+      </c>
+      <c r="DE6">
+        <v>0.9988046054454052</v>
+      </c>
+      <c r="DF6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4451,172 +4799,166 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>0.03843537469240527</v>
+        <v>0.1065197108875002</v>
       </c>
       <c r="F2">
-        <v>0.5127105739144939</v>
+        <v>0.5006079759631775</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L2">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>0.01728251357877686</v>
+        <v>0.1840657201633875</v>
       </c>
       <c r="F3">
-        <v>0.5857689196463485</v>
+        <v>0.5261080782848464</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L3">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>0.02234511982929795</v>
+        <v>0.1359275669348709</v>
       </c>
       <c r="F4">
-        <v>0.522808510147462</v>
+        <v>0.5062671583102845</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -4625,48 +4967,45 @@
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L4">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>0.01576392860027468</v>
+        <v>0.09517463775349605</v>
       </c>
       <c r="F5">
-        <v>0.5045918079202276</v>
+        <v>0.5062561453632742</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4675,78 +5014,72 @@
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L5">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>0.01176312648722264</v>
+        <v>0.1355510918319801</v>
       </c>
       <c r="F6">
-        <v>0.5376463901055638</v>
+        <v>0.5003813255256627</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L6">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4764,222 +5097,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.03843537469240527</v>
+        <v>0.1065197108875002</v>
       </c>
       <c r="F2">
-        <v>0.75630980815018</v>
+        <v>0.7677368396149369</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L2">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>0.01728251357877686</v>
+        <v>0.1840657201633875</v>
       </c>
       <c r="F3">
-        <v>0.7736860447291229</v>
+        <v>0.7854944798477689</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L3">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>0.02234511982929795</v>
+        <v>0.1359275669348709</v>
       </c>
       <c r="F4">
-        <v>0.7472668134919219</v>
+        <v>0.7565538704443703</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L4">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>0.01576392860027468</v>
+        <v>0.09517463775349605</v>
       </c>
       <c r="F5">
-        <v>0.7451179947574699</v>
+        <v>0.8009806484051851</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -4988,78 +5312,72 @@
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L5">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01176312648722264</v>
+        <v>0.1355510918319801</v>
       </c>
       <c r="F6">
-        <v>0.7017504160799209</v>
+        <v>0.8096675024595381</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L6">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5077,302 +5395,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.03843537469240527</v>
+        <v>0.1065197108875002</v>
       </c>
       <c r="F2">
-        <v>0.8042025777003915</v>
+        <v>0.8212948643396106</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L2">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>0.01728251357877686</v>
+        <v>0.1840657201633875</v>
       </c>
       <c r="F3">
-        <v>0.8760348184754894</v>
+        <v>0.8298758605199623</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L3">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>0.02234511982929795</v>
+        <v>0.1359275669348709</v>
       </c>
       <c r="F4">
-        <v>0.8087616275783635</v>
+        <v>0.8323325429732882</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L4">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>0.01576392860027468</v>
+        <v>0.09517463775349605</v>
       </c>
       <c r="F5">
-        <v>0.8078980487088023</v>
+        <v>0.8009806484051851</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L5">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01176312648722264</v>
+        <v>0.1355510918319801</v>
       </c>
       <c r="F6">
-        <v>0.8903469295037285</v>
+        <v>0.8096675024595381</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L6">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5390,302 +5693,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.03843537469240527</v>
+        <v>0.1065197108875002</v>
       </c>
       <c r="F2">
-        <v>0.9174603109317638</v>
+        <v>0.9202439358275544</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>800</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L2">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>800</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>0.01728251357877686</v>
+        <v>0.1840657201633875</v>
       </c>
       <c r="F3">
-        <v>0.9698198509227006</v>
+        <v>0.9371833069892941</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>800</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L3">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>0.02234511982929795</v>
+        <v>0.1359275669348709</v>
       </c>
       <c r="F4">
-        <v>0.9132932054559209</v>
+        <v>0.9508703330604482</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>800</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L4">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>0.01576392860027468</v>
+        <v>0.09517463775349605</v>
       </c>
       <c r="F5">
-        <v>0.9275435717444322</v>
+        <v>0.945420500199876</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L5">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.01176312648722264</v>
+        <v>0.1355510918319801</v>
       </c>
       <c r="F6">
-        <v>0.9496285179202498</v>
+        <v>0.9085495149940093</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>800</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L6">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M6">
         <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
